--- a/scripts/census_acs/inputs/acs_variables.xlsx
+++ b/scripts/census_acs/inputs/acs_variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\_geodata\data_public\ossdb\processing\geodata_ossdb\scripts\census_acs\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\_geodata\data_public\ossdb\processing\geodata_ossdb\scripts\census_acs\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55151381-6E34-40A2-9710-C922E77D12FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84B067B-3030-4DC4-A36E-D9DE1D80C4AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,11 @@
     <sheet name="readme" sheetId="1" r:id="rId1"/>
     <sheet name="socialecon" sheetId="9" r:id="rId2"/>
     <sheet name="pophousing" sheetId="10" r:id="rId3"/>
-    <sheet name="county_subdivs" sheetId="7" r:id="rId4"/>
-    <sheet name="tracts" sheetId="6" r:id="rId5"/>
-    <sheet name="zctas" sheetId="5" r:id="rId6"/>
-    <sheet name="original_2021" sheetId="8" r:id="rId7"/>
+    <sheet name="pophousing_2022" sheetId="13" r:id="rId4"/>
+    <sheet name="county_subdivs" sheetId="7" r:id="rId5"/>
+    <sheet name="tracts" sheetId="6" r:id="rId6"/>
+    <sheet name="zctas" sheetId="5" r:id="rId7"/>
+    <sheet name="original_2021" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9858" uniqueCount="4648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10486" uniqueCount="4652">
   <si>
     <t>Second set of ACS variables from DP04 and DP05, correlates nycgdb column names with census names, labels, and types from the API</t>
   </si>
@@ -13893,42 +13894,6 @@
     <t>Frank Donnelly, Head of GIS &amp; Data Services</t>
   </si>
   <si>
-    <t>Estimate!!INCOME AND BENEFITS (IN 2022 INFLATION-ADJUSTED DOLLARS)!!Total households</t>
-  </si>
-  <si>
-    <t>Margin of Error!!INCOME AND BENEFITS (IN 2022 INFLATION-ADJUSTED DOLLARS)!!Total households</t>
-  </si>
-  <si>
-    <t>Percent!!INCOME AND BENEFITS (IN 2022 INFLATION-ADJUSTED DOLLARS)!!Total households</t>
-  </si>
-  <si>
-    <t>Percent Margin of Error!!INCOME AND BENEFITS (IN 2022 INFLATION-ADJUSTED DOLLARS)!!Total households</t>
-  </si>
-  <si>
-    <t>Estimate!!INCOME AND BENEFITS (IN 2022 INFLATION-ADJUSTED DOLLARS)!!Total households!!Median household income (dollars)</t>
-  </si>
-  <si>
-    <t>Margin of Error!!INCOME AND BENEFITS (IN 2022 INFLATION-ADJUSTED DOLLARS)!!Total households!!Median household income (dollars)</t>
-  </si>
-  <si>
-    <t>Percent!!INCOME AND BENEFITS (IN 2022 INFLATION-ADJUSTED DOLLARS)!!Total households!!Median household income (dollars)</t>
-  </si>
-  <si>
-    <t>Percent Margin of Error!!INCOME AND BENEFITS (IN 2022 INFLATION-ADJUSTED DOLLARS)!!Total households!!Median household income (dollars)</t>
-  </si>
-  <si>
-    <t>Estimate!!INCOME AND BENEFITS (IN 2022 INFLATION-ADJUSTED DOLLARS)!!Total households!!Mean household income (dollars)</t>
-  </si>
-  <si>
-    <t>Margin of Error!!INCOME AND BENEFITS (IN 2022 INFLATION-ADJUSTED DOLLARS)!!Total households!!Mean household income (dollars)</t>
-  </si>
-  <si>
-    <t>Percent!!INCOME AND BENEFITS (IN 2022 INFLATION-ADJUSTED DOLLARS)!!Total households!!Mean household income (dollars)</t>
-  </si>
-  <si>
-    <t>Percent Margin of Error!!INCOME AND BENEFITS (IN 2022 INFLATION-ADJUSTED DOLLARS)!!Total households!!Mean household income (dollars)</t>
-  </si>
-  <si>
     <t>Estimate!!RACE!!Total population!!One race!!Some Other Race</t>
   </si>
   <si>
@@ -13975,6 +13940,54 @@
   </si>
   <si>
     <t>Percent Margin of Error!!HISPANIC OR LATINO AND RACE!!Total population!!Not Hispanic or Latino!!Two or More Races</t>
+  </si>
+  <si>
+    <t>Estimate!!INCOME AND BENEFITS (IN 2023 INFLATION-ADJUSTED DOLLARS)!!Total households</t>
+  </si>
+  <si>
+    <t>Margin of Error!!INCOME AND BENEFITS (IN 2023 INFLATION-ADJUSTED DOLLARS)!!Total households</t>
+  </si>
+  <si>
+    <t>Percent!!INCOME AND BENEFITS (IN 2023 INFLATION-ADJUSTED DOLLARS)!!Total households</t>
+  </si>
+  <si>
+    <t>Percent Margin of Error!!INCOME AND BENEFITS (IN 2023 INFLATION-ADJUSTED DOLLARS)!!Total households</t>
+  </si>
+  <si>
+    <t>Estimate!!INCOME AND BENEFITS (IN 2023 INFLATION-ADJUSTED DOLLARS)!!Total households!!Median household income (dollars)</t>
+  </si>
+  <si>
+    <t>Margin of Error!!INCOME AND BENEFITS (IN 2023 INFLATION-ADJUSTED DOLLARS)!!Total households!!Median household income (dollars)</t>
+  </si>
+  <si>
+    <t>Percent!!INCOME AND BENEFITS (IN 2023 INFLATION-ADJUSTED DOLLARS)!!Total households!!Median household income (dollars)</t>
+  </si>
+  <si>
+    <t>Percent Margin of Error!!INCOME AND BENEFITS (IN 2023 INFLATION-ADJUSTED DOLLARS)!!Total households!!Median household income (dollars)</t>
+  </si>
+  <si>
+    <t>Estimate!!INCOME AND BENEFITS (IN 2023 INFLATION-ADJUSTED DOLLARS)!!Total households!!Mean household income (dollars)</t>
+  </si>
+  <si>
+    <t>Margin of Error!!INCOME AND BENEFITS (IN 2023 INFLATION-ADJUSTED DOLLARS)!!Total households!!Mean household income (dollars)</t>
+  </si>
+  <si>
+    <t>Percent!!INCOME AND BENEFITS (IN 2023 INFLATION-ADJUSTED DOLLARS)!!Total households!!Mean household income (dollars)</t>
+  </si>
+  <si>
+    <t>Percent Margin of Error!!INCOME AND BENEFITS (IN 2023 INFLATION-ADJUSTED DOLLARS)!!Total households!!Mean household income (dollars)</t>
+  </si>
+  <si>
+    <t>DP05_0092E</t>
+  </si>
+  <si>
+    <t>DP05_0092M</t>
+  </si>
+  <si>
+    <t>DP05_0092PE</t>
+  </si>
+  <si>
+    <t>DP05_0092PM</t>
   </si>
 </sst>
 </file>
@@ -14406,7 +14419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA07F187-AA6A-40D6-BE37-E1951A08B17E}">
   <dimension ref="A1:D189"/>
   <sheetViews>
-    <sheetView topLeftCell="A170" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
@@ -16903,7 +16916,7 @@
         <v>367</v>
       </c>
       <c r="C178" t="s">
-        <v>4620</v>
+        <v>4636</v>
       </c>
       <c r="D178" t="s">
         <v>10</v>
@@ -16917,7 +16930,7 @@
         <v>369</v>
       </c>
       <c r="C179" t="s">
-        <v>4621</v>
+        <v>4637</v>
       </c>
       <c r="D179" t="s">
         <v>10</v>
@@ -16931,7 +16944,7 @@
         <v>370</v>
       </c>
       <c r="C180" t="s">
-        <v>4622</v>
+        <v>4638</v>
       </c>
       <c r="D180" t="s">
         <v>10</v>
@@ -16945,7 +16958,7 @@
         <v>372</v>
       </c>
       <c r="C181" t="s">
-        <v>4623</v>
+        <v>4639</v>
       </c>
       <c r="D181" t="s">
         <v>10</v>
@@ -16959,7 +16972,7 @@
         <v>379</v>
       </c>
       <c r="C182" t="s">
-        <v>4624</v>
+        <v>4640</v>
       </c>
       <c r="D182" t="s">
         <v>10</v>
@@ -16973,7 +16986,7 @@
         <v>380</v>
       </c>
       <c r="C183" t="s">
-        <v>4625</v>
+        <v>4641</v>
       </c>
       <c r="D183" t="s">
         <v>10</v>
@@ -16987,7 +17000,7 @@
         <v>381</v>
       </c>
       <c r="C184" t="s">
-        <v>4626</v>
+        <v>4642</v>
       </c>
       <c r="D184" t="s">
         <v>10</v>
@@ -17001,7 +17014,7 @@
         <v>382</v>
       </c>
       <c r="C185" t="s">
-        <v>4627</v>
+        <v>4643</v>
       </c>
       <c r="D185" t="s">
         <v>10</v>
@@ -17015,7 +17028,7 @@
         <v>383</v>
       </c>
       <c r="C186" t="s">
-        <v>4628</v>
+        <v>4644</v>
       </c>
       <c r="D186" t="s">
         <v>10</v>
@@ -17029,7 +17042,7 @@
         <v>384</v>
       </c>
       <c r="C187" t="s">
-        <v>4629</v>
+        <v>4645</v>
       </c>
       <c r="D187" t="s">
         <v>10</v>
@@ -17043,7 +17056,7 @@
         <v>385</v>
       </c>
       <c r="C188" t="s">
-        <v>4630</v>
+        <v>4646</v>
       </c>
       <c r="D188" t="s">
         <v>10</v>
@@ -17057,7 +17070,7 @@
         <v>386</v>
       </c>
       <c r="C189" t="s">
-        <v>4631</v>
+        <v>4647</v>
       </c>
       <c r="D189" t="s">
         <v>10</v>
@@ -17076,8 +17089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FE19D5-D5E6-4BDC-9D28-08C15D1CD951}">
   <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18226,7 +18239,7 @@
         <v>547</v>
       </c>
       <c r="B82" t="s">
-        <v>548</v>
+        <v>4196</v>
       </c>
       <c r="C82" t="s">
         <v>549</v>
@@ -18240,7 +18253,7 @@
         <v>550</v>
       </c>
       <c r="B83" t="s">
-        <v>551</v>
+        <v>4197</v>
       </c>
       <c r="C83" t="s">
         <v>552</v>
@@ -18254,7 +18267,7 @@
         <v>4516</v>
       </c>
       <c r="B84" t="s">
-        <v>553</v>
+        <v>4198</v>
       </c>
       <c r="C84" t="s">
         <v>929</v>
@@ -18268,7 +18281,7 @@
         <v>554</v>
       </c>
       <c r="B85" t="s">
-        <v>555</v>
+        <v>4199</v>
       </c>
       <c r="C85" t="s">
         <v>556</v>
@@ -18450,7 +18463,7 @@
         <v>587</v>
       </c>
       <c r="B98" t="s">
-        <v>588</v>
+        <v>4252</v>
       </c>
       <c r="C98" t="s">
         <v>589</v>
@@ -18464,7 +18477,7 @@
         <v>590</v>
       </c>
       <c r="B99" t="s">
-        <v>591</v>
+        <v>4254</v>
       </c>
       <c r="C99" t="s">
         <v>592</v>
@@ -18478,7 +18491,7 @@
         <v>4520</v>
       </c>
       <c r="B100" t="s">
-        <v>593</v>
+        <v>4256</v>
       </c>
       <c r="C100" t="s">
         <v>933</v>
@@ -18492,7 +18505,7 @@
         <v>594</v>
       </c>
       <c r="B101" t="s">
-        <v>595</v>
+        <v>4258</v>
       </c>
       <c r="C101" t="s">
         <v>596</v>
@@ -18506,7 +18519,7 @@
         <v>597</v>
       </c>
       <c r="B102" t="s">
-        <v>598</v>
+        <v>4308</v>
       </c>
       <c r="C102" t="s">
         <v>599</v>
@@ -18520,7 +18533,7 @@
         <v>600</v>
       </c>
       <c r="B103" t="s">
-        <v>601</v>
+        <v>4310</v>
       </c>
       <c r="C103" t="s">
         <v>602</v>
@@ -18534,7 +18547,7 @@
         <v>4521</v>
       </c>
       <c r="B104" t="s">
-        <v>603</v>
+        <v>4312</v>
       </c>
       <c r="C104" t="s">
         <v>934</v>
@@ -18548,7 +18561,7 @@
         <v>604</v>
       </c>
       <c r="B105" t="s">
-        <v>605</v>
+        <v>4314</v>
       </c>
       <c r="C105" t="s">
         <v>606</v>
@@ -18562,10 +18575,10 @@
         <v>607</v>
       </c>
       <c r="B106" t="s">
-        <v>608</v>
+        <v>4332</v>
       </c>
       <c r="C106" t="s">
-        <v>4632</v>
+        <v>4620</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
@@ -18576,10 +18589,10 @@
         <v>610</v>
       </c>
       <c r="B107" t="s">
-        <v>611</v>
+        <v>4334</v>
       </c>
       <c r="C107" t="s">
-        <v>4633</v>
+        <v>4621</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
@@ -18590,10 +18603,10 @@
         <v>4522</v>
       </c>
       <c r="B108" t="s">
-        <v>613</v>
+        <v>4336</v>
       </c>
       <c r="C108" t="s">
-        <v>4634</v>
+        <v>4622</v>
       </c>
       <c r="D108" t="s">
         <v>23</v>
@@ -18604,10 +18617,10 @@
         <v>614</v>
       </c>
       <c r="B109" t="s">
-        <v>615</v>
+        <v>4338</v>
       </c>
       <c r="C109" t="s">
-        <v>4635</v>
+        <v>4623</v>
       </c>
       <c r="D109" t="s">
         <v>23</v>
@@ -18618,10 +18631,10 @@
         <v>617</v>
       </c>
       <c r="B110" t="s">
-        <v>618</v>
+        <v>4200</v>
       </c>
       <c r="C110" t="s">
-        <v>4640</v>
+        <v>4628</v>
       </c>
       <c r="D110" t="s">
         <v>10</v>
@@ -18632,10 +18645,10 @@
         <v>620</v>
       </c>
       <c r="B111" t="s">
-        <v>621</v>
+        <v>4201</v>
       </c>
       <c r="C111" t="s">
-        <v>4641</v>
+        <v>4629</v>
       </c>
       <c r="D111" t="s">
         <v>10</v>
@@ -18646,10 +18659,10 @@
         <v>4523</v>
       </c>
       <c r="B112" t="s">
-        <v>623</v>
+        <v>4202</v>
       </c>
       <c r="C112" t="s">
-        <v>4642</v>
+        <v>4630</v>
       </c>
       <c r="D112" t="s">
         <v>23</v>
@@ -18660,10 +18673,10 @@
         <v>624</v>
       </c>
       <c r="B113" t="s">
-        <v>625</v>
+        <v>4203</v>
       </c>
       <c r="C113" t="s">
-        <v>4643</v>
+        <v>4631</v>
       </c>
       <c r="D113" t="s">
         <v>23</v>
@@ -18674,7 +18687,7 @@
         <v>627</v>
       </c>
       <c r="B114" t="s">
-        <v>4412</v>
+        <v>4436</v>
       </c>
       <c r="C114" t="s">
         <v>629</v>
@@ -18688,7 +18701,7 @@
         <v>630</v>
       </c>
       <c r="B115" t="s">
-        <v>4414</v>
+        <v>4438</v>
       </c>
       <c r="C115" t="s">
         <v>632</v>
@@ -18702,7 +18715,7 @@
         <v>4524</v>
       </c>
       <c r="B116" t="s">
-        <v>4416</v>
+        <v>4440</v>
       </c>
       <c r="C116" t="s">
         <v>937</v>
@@ -18716,7 +18729,7 @@
         <v>634</v>
       </c>
       <c r="B117" t="s">
-        <v>4418</v>
+        <v>4442</v>
       </c>
       <c r="C117" t="s">
         <v>636</v>
@@ -18730,7 +18743,7 @@
         <v>637</v>
       </c>
       <c r="B118" t="s">
-        <v>4420</v>
+        <v>648</v>
       </c>
       <c r="C118" t="s">
         <v>639</v>
@@ -18744,7 +18757,7 @@
         <v>640</v>
       </c>
       <c r="B119" t="s">
-        <v>4422</v>
+        <v>651</v>
       </c>
       <c r="C119" t="s">
         <v>642</v>
@@ -18758,7 +18771,7 @@
         <v>4525</v>
       </c>
       <c r="B120" t="s">
-        <v>4424</v>
+        <v>653</v>
       </c>
       <c r="C120" t="s">
         <v>938</v>
@@ -18772,7 +18785,7 @@
         <v>644</v>
       </c>
       <c r="B121" t="s">
-        <v>4426</v>
+        <v>655</v>
       </c>
       <c r="C121" t="s">
         <v>646</v>
@@ -18786,7 +18799,7 @@
         <v>647</v>
       </c>
       <c r="B122" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="C122" t="s">
         <v>649</v>
@@ -18800,7 +18813,7 @@
         <v>650</v>
       </c>
       <c r="B123" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C123" t="s">
         <v>652</v>
@@ -18814,7 +18827,7 @@
         <v>4526</v>
       </c>
       <c r="B124" t="s">
-        <v>673</v>
+        <v>703</v>
       </c>
       <c r="C124" t="s">
         <v>939</v>
@@ -18828,7 +18841,7 @@
         <v>654</v>
       </c>
       <c r="B125" t="s">
-        <v>675</v>
+        <v>705</v>
       </c>
       <c r="C125" t="s">
         <v>656</v>
@@ -18842,7 +18855,7 @@
         <v>657</v>
       </c>
       <c r="B126" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="C126" t="s">
         <v>659</v>
@@ -18856,7 +18869,7 @@
         <v>660</v>
       </c>
       <c r="B127" t="s">
-        <v>681</v>
+        <v>711</v>
       </c>
       <c r="C127" t="s">
         <v>662</v>
@@ -18870,7 +18883,7 @@
         <v>4527</v>
       </c>
       <c r="B128" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="C128" t="s">
         <v>940</v>
@@ -18884,7 +18897,7 @@
         <v>664</v>
       </c>
       <c r="B129" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="C129" t="s">
         <v>666</v>
@@ -18898,7 +18911,7 @@
         <v>667</v>
       </c>
       <c r="B130" t="s">
-        <v>688</v>
+        <v>718</v>
       </c>
       <c r="C130" t="s">
         <v>669</v>
@@ -18912,7 +18925,7 @@
         <v>670</v>
       </c>
       <c r="B131" t="s">
-        <v>691</v>
+        <v>721</v>
       </c>
       <c r="C131" t="s">
         <v>672</v>
@@ -18926,7 +18939,7 @@
         <v>4528</v>
       </c>
       <c r="B132" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="C132" t="s">
         <v>941</v>
@@ -18940,7 +18953,7 @@
         <v>674</v>
       </c>
       <c r="B133" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="C133" t="s">
         <v>676</v>
@@ -18954,7 +18967,7 @@
         <v>677</v>
       </c>
       <c r="B134" t="s">
-        <v>698</v>
+        <v>4444</v>
       </c>
       <c r="C134" t="s">
         <v>679</v>
@@ -18968,7 +18981,7 @@
         <v>680</v>
       </c>
       <c r="B135" t="s">
-        <v>701</v>
+        <v>4446</v>
       </c>
       <c r="C135" t="s">
         <v>682</v>
@@ -18982,7 +18995,7 @@
         <v>4529</v>
       </c>
       <c r="B136" t="s">
-        <v>703</v>
+        <v>4448</v>
       </c>
       <c r="C136" t="s">
         <v>942</v>
@@ -18996,7 +19009,7 @@
         <v>684</v>
       </c>
       <c r="B137" t="s">
-        <v>705</v>
+        <v>4450</v>
       </c>
       <c r="C137" t="s">
         <v>686</v>
@@ -19010,7 +19023,7 @@
         <v>687</v>
       </c>
       <c r="B138" t="s">
-        <v>708</v>
+        <v>4452</v>
       </c>
       <c r="C138" t="s">
         <v>689</v>
@@ -19024,7 +19037,7 @@
         <v>690</v>
       </c>
       <c r="B139" t="s">
-        <v>711</v>
+        <v>4454</v>
       </c>
       <c r="C139" t="s">
         <v>692</v>
@@ -19038,7 +19051,7 @@
         <v>4530</v>
       </c>
       <c r="B140" t="s">
-        <v>713</v>
+        <v>4456</v>
       </c>
       <c r="C140" t="s">
         <v>943</v>
@@ -19052,7 +19065,7 @@
         <v>694</v>
       </c>
       <c r="B141" t="s">
-        <v>715</v>
+        <v>4458</v>
       </c>
       <c r="C141" t="s">
         <v>696</v>
@@ -19066,7 +19079,7 @@
         <v>697</v>
       </c>
       <c r="B142" t="s">
-        <v>718</v>
+        <v>4460</v>
       </c>
       <c r="C142" t="s">
         <v>699</v>
@@ -19080,7 +19093,7 @@
         <v>700</v>
       </c>
       <c r="B143" t="s">
-        <v>721</v>
+        <v>4462</v>
       </c>
       <c r="C143" t="s">
         <v>702</v>
@@ -19094,7 +19107,7 @@
         <v>4531</v>
       </c>
       <c r="B144" t="s">
-        <v>723</v>
+        <v>4464</v>
       </c>
       <c r="C144" t="s">
         <v>944</v>
@@ -19108,7 +19121,7 @@
         <v>704</v>
       </c>
       <c r="B145" t="s">
-        <v>725</v>
+        <v>4466</v>
       </c>
       <c r="C145" t="s">
         <v>706</v>
@@ -19122,10 +19135,10 @@
         <v>707</v>
       </c>
       <c r="B146" t="s">
-        <v>4444</v>
+        <v>728</v>
       </c>
       <c r="C146" t="s">
-        <v>4636</v>
+        <v>4624</v>
       </c>
       <c r="D146" t="s">
         <v>10</v>
@@ -19136,10 +19149,10 @@
         <v>710</v>
       </c>
       <c r="B147" t="s">
-        <v>4446</v>
+        <v>730</v>
       </c>
       <c r="C147" t="s">
-        <v>4637</v>
+        <v>4625</v>
       </c>
       <c r="D147" t="s">
         <v>10</v>
@@ -19150,10 +19163,10 @@
         <v>4532</v>
       </c>
       <c r="B148" t="s">
-        <v>4448</v>
+        <v>731</v>
       </c>
       <c r="C148" t="s">
-        <v>4638</v>
+        <v>4626</v>
       </c>
       <c r="D148" t="s">
         <v>23</v>
@@ -19164,10 +19177,10 @@
         <v>714</v>
       </c>
       <c r="B149" t="s">
-        <v>4450</v>
+        <v>733</v>
       </c>
       <c r="C149" t="s">
-        <v>4639</v>
+        <v>4627</v>
       </c>
       <c r="D149" t="s">
         <v>23</v>
@@ -19178,10 +19191,10 @@
         <v>717</v>
       </c>
       <c r="B150" t="s">
-        <v>4452</v>
+        <v>4468</v>
       </c>
       <c r="C150" t="s">
-        <v>4644</v>
+        <v>4632</v>
       </c>
       <c r="D150" t="s">
         <v>10</v>
@@ -19192,10 +19205,10 @@
         <v>720</v>
       </c>
       <c r="B151" t="s">
-        <v>4454</v>
+        <v>4470</v>
       </c>
       <c r="C151" t="s">
-        <v>4645</v>
+        <v>4633</v>
       </c>
       <c r="D151" t="s">
         <v>10</v>
@@ -19206,10 +19219,10 @@
         <v>4533</v>
       </c>
       <c r="B152" t="s">
-        <v>4456</v>
+        <v>4472</v>
       </c>
       <c r="C152" t="s">
-        <v>4646</v>
+        <v>4634</v>
       </c>
       <c r="D152" t="s">
         <v>23</v>
@@ -19220,10 +19233,10 @@
         <v>724</v>
       </c>
       <c r="B153" t="s">
-        <v>4458</v>
+        <v>4474</v>
       </c>
       <c r="C153" t="s">
-        <v>4647</v>
+        <v>4635</v>
       </c>
       <c r="D153" t="s">
         <v>23</v>
@@ -19234,7 +19247,7 @@
         <v>727</v>
       </c>
       <c r="B154" t="s">
-        <v>4476</v>
+        <v>4648</v>
       </c>
       <c r="C154" t="s">
         <v>751</v>
@@ -19248,7 +19261,7 @@
         <v>729</v>
       </c>
       <c r="B155" t="s">
-        <v>4478</v>
+        <v>4649</v>
       </c>
       <c r="C155" t="s">
         <v>752</v>
@@ -19262,7 +19275,7 @@
         <v>4534</v>
       </c>
       <c r="B156" t="s">
-        <v>4480</v>
+        <v>4650</v>
       </c>
       <c r="C156" t="s">
         <v>947</v>
@@ -19276,7 +19289,7 @@
         <v>732</v>
       </c>
       <c r="B157" t="s">
-        <v>4482</v>
+        <v>4651</v>
       </c>
       <c r="C157" t="s">
         <v>753</v>
@@ -19292,6 +19305,2225 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1498989-56A9-41CB-85D3-B6747624CD16}">
+  <dimension ref="A1:D157"/>
+  <sheetViews>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="B4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4485</v>
+      </c>
+      <c r="B8" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" t="s">
+        <v>914</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>4486</v>
+      </c>
+      <c r="B12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C12" t="s">
+        <v>915</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B13" t="s">
+        <v>415</v>
+      </c>
+      <c r="C13" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C14" t="s">
+        <v>419</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B15" t="s">
+        <v>421</v>
+      </c>
+      <c r="C15" t="s">
+        <v>422</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B16" t="s">
+        <v>423</v>
+      </c>
+      <c r="C16" t="s">
+        <v>916</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B17" t="s">
+        <v>425</v>
+      </c>
+      <c r="C17" t="s">
+        <v>426</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B18" t="s">
+        <v>428</v>
+      </c>
+      <c r="C18" t="s">
+        <v>429</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B19" t="s">
+        <v>431</v>
+      </c>
+      <c r="C19" t="s">
+        <v>432</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>4488</v>
+      </c>
+      <c r="B20" t="s">
+        <v>433</v>
+      </c>
+      <c r="C20" t="s">
+        <v>917</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B21" t="s">
+        <v>435</v>
+      </c>
+      <c r="C21" t="s">
+        <v>436</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B22" t="s">
+        <v>438</v>
+      </c>
+      <c r="C22" t="s">
+        <v>439</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B23" t="s">
+        <v>441</v>
+      </c>
+      <c r="C23" t="s">
+        <v>442</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>4489</v>
+      </c>
+      <c r="B24" t="s">
+        <v>443</v>
+      </c>
+      <c r="C24" t="s">
+        <v>918</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B25" t="s">
+        <v>445</v>
+      </c>
+      <c r="C25" t="s">
+        <v>446</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B26" t="s">
+        <v>448</v>
+      </c>
+      <c r="C26" t="s">
+        <v>449</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B27" t="s">
+        <v>451</v>
+      </c>
+      <c r="C27" t="s">
+        <v>452</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B28" t="s">
+        <v>453</v>
+      </c>
+      <c r="C28" t="s">
+        <v>919</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B29" t="s">
+        <v>455</v>
+      </c>
+      <c r="C29" t="s">
+        <v>456</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B30" t="s">
+        <v>458</v>
+      </c>
+      <c r="C30" t="s">
+        <v>459</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B31" t="s">
+        <v>461</v>
+      </c>
+      <c r="C31" t="s">
+        <v>462</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B32" t="s">
+        <v>463</v>
+      </c>
+      <c r="C32" t="s">
+        <v>920</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B33" t="s">
+        <v>465</v>
+      </c>
+      <c r="C33" t="s">
+        <v>466</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3492</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3493</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3495</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3496</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3497</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3498</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>4493</v>
+      </c>
+      <c r="B38" t="s">
+        <v>468</v>
+      </c>
+      <c r="C38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B39" t="s">
+        <v>471</v>
+      </c>
+      <c r="C39" t="s">
+        <v>472</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>4495</v>
+      </c>
+      <c r="B40" t="s">
+        <v>473</v>
+      </c>
+      <c r="C40" t="s">
+        <v>921</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B41" t="s">
+        <v>475</v>
+      </c>
+      <c r="C41" t="s">
+        <v>476</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B42" t="s">
+        <v>478</v>
+      </c>
+      <c r="C42" t="s">
+        <v>479</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B43" t="s">
+        <v>481</v>
+      </c>
+      <c r="C43" t="s">
+        <v>482</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B44" t="s">
+        <v>483</v>
+      </c>
+      <c r="C44" t="s">
+        <v>922</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B45" t="s">
+        <v>485</v>
+      </c>
+      <c r="C45" t="s">
+        <v>486</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B46" t="s">
+        <v>490</v>
+      </c>
+      <c r="C46" t="s">
+        <v>491</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B47" t="s">
+        <v>492</v>
+      </c>
+      <c r="C47" t="s">
+        <v>493</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B48" t="s">
+        <v>494</v>
+      </c>
+      <c r="C48" t="s">
+        <v>923</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B49" t="s">
+        <v>495</v>
+      </c>
+      <c r="C49" t="s">
+        <v>496</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B50" t="s">
+        <v>498</v>
+      </c>
+      <c r="C50" t="s">
+        <v>499</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B51" t="s">
+        <v>501</v>
+      </c>
+      <c r="C51" t="s">
+        <v>502</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>4499</v>
+      </c>
+      <c r="B52" t="s">
+        <v>503</v>
+      </c>
+      <c r="C52" t="s">
+        <v>924</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B53" t="s">
+        <v>505</v>
+      </c>
+      <c r="C53" t="s">
+        <v>506</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B54" t="s">
+        <v>508</v>
+      </c>
+      <c r="C54" t="s">
+        <v>509</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B55" t="s">
+        <v>511</v>
+      </c>
+      <c r="C55" t="s">
+        <v>512</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B56" t="s">
+        <v>513</v>
+      </c>
+      <c r="C56" t="s">
+        <v>925</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B57" t="s">
+        <v>515</v>
+      </c>
+      <c r="C57" t="s">
+        <v>516</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B58" t="s">
+        <v>518</v>
+      </c>
+      <c r="C58" t="s">
+        <v>519</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B59" t="s">
+        <v>521</v>
+      </c>
+      <c r="C59" t="s">
+        <v>522</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>4501</v>
+      </c>
+      <c r="B60" t="s">
+        <v>523</v>
+      </c>
+      <c r="C60" t="s">
+        <v>926</v>
+      </c>
+      <c r="D60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B61" t="s">
+        <v>525</v>
+      </c>
+      <c r="C61" t="s">
+        <v>526</v>
+      </c>
+      <c r="D61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B62" t="s">
+        <v>530</v>
+      </c>
+      <c r="C62" t="s">
+        <v>531</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B63" t="s">
+        <v>532</v>
+      </c>
+      <c r="C63" t="s">
+        <v>533</v>
+      </c>
+      <c r="D63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>4502</v>
+      </c>
+      <c r="B64" t="s">
+        <v>534</v>
+      </c>
+      <c r="C64" t="s">
+        <v>927</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B65" t="s">
+        <v>535</v>
+      </c>
+      <c r="C65" t="s">
+        <v>536</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>4503</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4092</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4093</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>4504</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4094</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4095</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>4505</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4096</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4097</v>
+      </c>
+      <c r="D68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>4506</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4098</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4099</v>
+      </c>
+      <c r="D69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>4507</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4108</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4109</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>4508</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4111</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>4509</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4112</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4113</v>
+      </c>
+      <c r="D72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>4510</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4114</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4115</v>
+      </c>
+      <c r="D73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4132</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4133</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>4512</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4134</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4135</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4136</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4137</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4138</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4139</v>
+      </c>
+      <c r="D77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B78" t="s">
+        <v>538</v>
+      </c>
+      <c r="C78" t="s">
+        <v>539</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B79" t="s">
+        <v>541</v>
+      </c>
+      <c r="C79" t="s">
+        <v>542</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>4515</v>
+      </c>
+      <c r="B80" t="s">
+        <v>543</v>
+      </c>
+      <c r="C80" t="s">
+        <v>928</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B81" t="s">
+        <v>545</v>
+      </c>
+      <c r="C81" t="s">
+        <v>546</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B82" t="s">
+        <v>548</v>
+      </c>
+      <c r="C82" t="s">
+        <v>549</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B83" t="s">
+        <v>551</v>
+      </c>
+      <c r="C83" t="s">
+        <v>552</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>4516</v>
+      </c>
+      <c r="B84" t="s">
+        <v>553</v>
+      </c>
+      <c r="C84" t="s">
+        <v>929</v>
+      </c>
+      <c r="D84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B85" t="s">
+        <v>555</v>
+      </c>
+      <c r="C85" t="s">
+        <v>556</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B86" t="s">
+        <v>558</v>
+      </c>
+      <c r="C86" t="s">
+        <v>559</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B87" t="s">
+        <v>561</v>
+      </c>
+      <c r="C87" t="s">
+        <v>562</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B88" t="s">
+        <v>563</v>
+      </c>
+      <c r="C88" t="s">
+        <v>930</v>
+      </c>
+      <c r="D88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B89" t="s">
+        <v>565</v>
+      </c>
+      <c r="C89" t="s">
+        <v>566</v>
+      </c>
+      <c r="D89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="B90" t="s">
+        <v>568</v>
+      </c>
+      <c r="C90" t="s">
+        <v>569</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B91" t="s">
+        <v>571</v>
+      </c>
+      <c r="C91" t="s">
+        <v>572</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>4518</v>
+      </c>
+      <c r="B92" t="s">
+        <v>573</v>
+      </c>
+      <c r="C92" t="s">
+        <v>931</v>
+      </c>
+      <c r="D92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B93" t="s">
+        <v>575</v>
+      </c>
+      <c r="C93" t="s">
+        <v>576</v>
+      </c>
+      <c r="D93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B94" t="s">
+        <v>578</v>
+      </c>
+      <c r="C94" t="s">
+        <v>579</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B95" t="s">
+        <v>581</v>
+      </c>
+      <c r="C95" t="s">
+        <v>582</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>4519</v>
+      </c>
+      <c r="B96" t="s">
+        <v>583</v>
+      </c>
+      <c r="C96" t="s">
+        <v>932</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B97" t="s">
+        <v>585</v>
+      </c>
+      <c r="C97" t="s">
+        <v>586</v>
+      </c>
+      <c r="D97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B98" t="s">
+        <v>588</v>
+      </c>
+      <c r="C98" t="s">
+        <v>589</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B99" t="s">
+        <v>591</v>
+      </c>
+      <c r="C99" t="s">
+        <v>592</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>4520</v>
+      </c>
+      <c r="B100" t="s">
+        <v>593</v>
+      </c>
+      <c r="C100" t="s">
+        <v>933</v>
+      </c>
+      <c r="D100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B101" t="s">
+        <v>595</v>
+      </c>
+      <c r="C101" t="s">
+        <v>596</v>
+      </c>
+      <c r="D101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B102" t="s">
+        <v>598</v>
+      </c>
+      <c r="C102" t="s">
+        <v>599</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B103" t="s">
+        <v>601</v>
+      </c>
+      <c r="C103" t="s">
+        <v>602</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>4521</v>
+      </c>
+      <c r="B104" t="s">
+        <v>603</v>
+      </c>
+      <c r="C104" t="s">
+        <v>934</v>
+      </c>
+      <c r="D104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B105" t="s">
+        <v>605</v>
+      </c>
+      <c r="C105" t="s">
+        <v>606</v>
+      </c>
+      <c r="D105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B106" t="s">
+        <v>608</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4620</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B107" t="s">
+        <v>611</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4621</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>4522</v>
+      </c>
+      <c r="B108" t="s">
+        <v>613</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4622</v>
+      </c>
+      <c r="D108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B109" t="s">
+        <v>615</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4623</v>
+      </c>
+      <c r="D109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B110" t="s">
+        <v>618</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4628</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B111" t="s">
+        <v>621</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4629</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>4523</v>
+      </c>
+      <c r="B112" t="s">
+        <v>623</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4630</v>
+      </c>
+      <c r="D112" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B113" t="s">
+        <v>625</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4631</v>
+      </c>
+      <c r="D113" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4412</v>
+      </c>
+      <c r="C114" t="s">
+        <v>629</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4414</v>
+      </c>
+      <c r="C115" t="s">
+        <v>632</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>4524</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4416</v>
+      </c>
+      <c r="C116" t="s">
+        <v>937</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4418</v>
+      </c>
+      <c r="C117" t="s">
+        <v>636</v>
+      </c>
+      <c r="D117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4420</v>
+      </c>
+      <c r="C118" t="s">
+        <v>639</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4422</v>
+      </c>
+      <c r="C119" t="s">
+        <v>642</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>4525</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4424</v>
+      </c>
+      <c r="C120" t="s">
+        <v>938</v>
+      </c>
+      <c r="D120" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4426</v>
+      </c>
+      <c r="C121" t="s">
+        <v>646</v>
+      </c>
+      <c r="D121" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B122" t="s">
+        <v>668</v>
+      </c>
+      <c r="C122" t="s">
+        <v>649</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B123" t="s">
+        <v>671</v>
+      </c>
+      <c r="C123" t="s">
+        <v>652</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>4526</v>
+      </c>
+      <c r="B124" t="s">
+        <v>673</v>
+      </c>
+      <c r="C124" t="s">
+        <v>939</v>
+      </c>
+      <c r="D124" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B125" t="s">
+        <v>675</v>
+      </c>
+      <c r="C125" t="s">
+        <v>656</v>
+      </c>
+      <c r="D125" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B126" t="s">
+        <v>678</v>
+      </c>
+      <c r="C126" t="s">
+        <v>659</v>
+      </c>
+      <c r="D126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B127" t="s">
+        <v>681</v>
+      </c>
+      <c r="C127" t="s">
+        <v>662</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>4527</v>
+      </c>
+      <c r="B128" t="s">
+        <v>683</v>
+      </c>
+      <c r="C128" t="s">
+        <v>940</v>
+      </c>
+      <c r="D128" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B129" t="s">
+        <v>685</v>
+      </c>
+      <c r="C129" t="s">
+        <v>666</v>
+      </c>
+      <c r="D129" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B130" t="s">
+        <v>688</v>
+      </c>
+      <c r="C130" t="s">
+        <v>669</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B131" t="s">
+        <v>691</v>
+      </c>
+      <c r="C131" t="s">
+        <v>672</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>4528</v>
+      </c>
+      <c r="B132" t="s">
+        <v>693</v>
+      </c>
+      <c r="C132" t="s">
+        <v>941</v>
+      </c>
+      <c r="D132" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B133" t="s">
+        <v>695</v>
+      </c>
+      <c r="C133" t="s">
+        <v>676</v>
+      </c>
+      <c r="D133" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B134" t="s">
+        <v>698</v>
+      </c>
+      <c r="C134" t="s">
+        <v>679</v>
+      </c>
+      <c r="D134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="B135" t="s">
+        <v>701</v>
+      </c>
+      <c r="C135" t="s">
+        <v>682</v>
+      </c>
+      <c r="D135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B136" t="s">
+        <v>703</v>
+      </c>
+      <c r="C136" t="s">
+        <v>942</v>
+      </c>
+      <c r="D136" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B137" t="s">
+        <v>705</v>
+      </c>
+      <c r="C137" t="s">
+        <v>686</v>
+      </c>
+      <c r="D137" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B138" t="s">
+        <v>708</v>
+      </c>
+      <c r="C138" t="s">
+        <v>689</v>
+      </c>
+      <c r="D138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="B139" t="s">
+        <v>711</v>
+      </c>
+      <c r="C139" t="s">
+        <v>692</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>4530</v>
+      </c>
+      <c r="B140" t="s">
+        <v>713</v>
+      </c>
+      <c r="C140" t="s">
+        <v>943</v>
+      </c>
+      <c r="D140" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B141" t="s">
+        <v>715</v>
+      </c>
+      <c r="C141" t="s">
+        <v>696</v>
+      </c>
+      <c r="D141" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B142" t="s">
+        <v>718</v>
+      </c>
+      <c r="C142" t="s">
+        <v>699</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B143" t="s">
+        <v>721</v>
+      </c>
+      <c r="C143" t="s">
+        <v>702</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>4531</v>
+      </c>
+      <c r="B144" t="s">
+        <v>723</v>
+      </c>
+      <c r="C144" t="s">
+        <v>944</v>
+      </c>
+      <c r="D144" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B145" t="s">
+        <v>725</v>
+      </c>
+      <c r="C145" t="s">
+        <v>706</v>
+      </c>
+      <c r="D145" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4444</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4624</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4625</v>
+      </c>
+      <c r="D147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>4532</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4448</v>
+      </c>
+      <c r="C148" t="s">
+        <v>4626</v>
+      </c>
+      <c r="D148" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4450</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4627</v>
+      </c>
+      <c r="D149" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4452</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4632</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4454</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4633</v>
+      </c>
+      <c r="D151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>4533</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4456</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4634</v>
+      </c>
+      <c r="D152" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4458</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4635</v>
+      </c>
+      <c r="D153" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4476</v>
+      </c>
+      <c r="C154" t="s">
+        <v>751</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4478</v>
+      </c>
+      <c r="C155" t="s">
+        <v>752</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>4534</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4480</v>
+      </c>
+      <c r="C156" t="s">
+        <v>947</v>
+      </c>
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4482</v>
+      </c>
+      <c r="C157" t="s">
+        <v>753</v>
+      </c>
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D952C22-6601-4BD2-82F0-14D243E95813}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -19336,7 +21568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -19390,7 +21622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A82"/>
   <sheetViews>
@@ -19821,11 +22053,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D963A692-0844-4774-BC87-F138D22D18D6}">
   <dimension ref="A1:E2092"/>
   <sheetViews>
-    <sheetView topLeftCell="A1736" workbookViewId="0">
+    <sheetView topLeftCell="A1733" workbookViewId="0">
       <selection activeCell="C1755" sqref="C1755"/>
     </sheetView>
   </sheetViews>
